--- a/指标/指标体系-未解决.xlsx
+++ b/指标/指标体系-未解决.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11863\Documents\GitHub\CitiCup-ModelAnalysis-NeuralNetwork\指标\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B7CB3B-EC8E-4D68-B766-927B7B996D3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51DE380-7CEA-463B-B1BF-1981E830F8CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3893" yWindow="1695" windowWidth="20206" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,40 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>准时性</t>
   </si>
   <si>
-    <t>年报是否在会计年度结束后两个月内披露</t>
-  </si>
-  <si>
-    <t>根据年报披露时间来设计</t>
-  </si>
-  <si>
-    <t>公司年报是否未迟于预约时间披露</t>
-  </si>
-  <si>
-    <t>得先找到公司预约的披露时间，这个一般不出现在财报里</t>
-  </si>
-  <si>
-    <t>公司中报时间是否按法定时间披露</t>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>公司中报是否于半年度结束后一个月内披露</t>
-  </si>
-  <si>
     <t>同理</t>
-  </si>
-  <si>
-    <t>公司季报是否按法定时间披露</t>
-  </si>
-  <si>
-    <t>深交所和上交所为上市公司诚信档案，对于信息披露违规行为将给予公开谴责</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -95,26 +67,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>证监会对于上市公司信息披露违规行为将给予行政处罚、通报批评</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">（从证监会的行政处罚、通报批评文件中爬取公司的名字） </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>证监会官网</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>注册会计师出具的审计报告体现了被审单位信息披露的质量，标准无保留意见（质量较高）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -147,13 +99,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>财务报表重述公告的频频发布，公司年报在公布后是否未进行财务报表重述（或者其频率)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(统计财务报表重述公告发布的频数)                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>具体解释</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -172,6 +117,46 @@
   <si>
     <t>寻找起来比较麻烦，不过可以反向来找，寻找没有标准无保留意见的</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年报是否在会计年度结束后两个月内披露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4同理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2根据年报披露时间来设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司第一季报是否按法定时间披露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司第三季报是否按法定时间披露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年报是否在法定时间披露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司中报是否按法定时间披露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司中报是否一个月内披露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会对于信息披露不真实行为给予公开谴责</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会对于信息披露不按期行为给予公开谴责</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -291,13 +276,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -330,7 +315,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>251997</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>371970</xdr:rowOff>
+      <xdr:rowOff>76696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -626,563 +611,599 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="B26:Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="B20:Q20"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:Q2"/>
     <mergeCell ref="B27:Q27"/>
@@ -1199,40 +1220,6 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="I22:Q22"/>
     <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1244,7 +1231,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1257,46 +1244,41 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1329,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD1143-2A65-47A9-8C3B-F02B373B949C}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -1343,10 +1325,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
